--- a/html/Lægesystemer - sende_excel.XLSX
+++ b/html/Lægesystemer - sende_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB189DD-1384-4E4D-81AF-09F351078435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB635A8-78C3-4EED-BE1C-B2B6E7B92A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___sende">'Opdateret d. 12-05-2025'!$A$1:$K$37</definedName>
+    <definedName name="Lægesystemer___sende">'Opdateret d. 16-05-2025'!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -97,7 +97,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Care Plan</t>

--- a/html/Lægesystemer - sende_excel.XLSX
+++ b/html/Lægesystemer - sende_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB635A8-78C3-4EED-BE1C-B2B6E7B92A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB2176-8F21-4ABA-BBFC-25E41067A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___sende">'Opdateret d. 16-05-2025'!$A$1:$K$37</definedName>
+    <definedName name="Lægesystemer___sende">'Opdateret d. 02-12-2025'!$A$1:$K$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="86">
   <si>
     <t>Standard</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>SUP (2.3)</t>
+  </si>
+  <si>
+    <t>SUP (3.0)</t>
   </si>
   <si>
     <t>Den gode VANSEnvelope</t>
@@ -619,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -950,6 +953,9 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -970,6 +976,9 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
@@ -1002,6 +1011,9 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1031,7 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1121,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1464,6 +1476,9 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1496,7 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1510,53 +1525,38 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="I33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1582,85 +1582,114 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>14</v>
-      </c>
       <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
         <v>14</v>
       </c>
     </row>

--- a/html/Lægesystemer - sende_excel.XLSX
+++ b/html/Lægesystemer - sende_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB2176-8F21-4ABA-BBFC-25E41067A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5C9B4-D363-427B-926F-BF4448794525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Lægesystemer - sende_excel.XLSX
+++ b/html/Lægesystemer - sende_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5C9B4-D363-427B-926F-BF4448794525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278336B-5144-4CD0-90AF-1D1BD2FD4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___sende">'Opdateret d. 02-12-2025'!$A$1:$K$38</definedName>
+    <definedName name="Lægesystemer___sende">'Opdateret d. 05-12-2025'!$A$1:$K$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -628,9 +628,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -838,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -847,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -931,7 +931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -986,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -1620,10 +1620,10 @@
         <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>

--- a/html/Lægesystemer - sende_excel.XLSX
+++ b/html/Lægesystemer - sende_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8278336B-5144-4CD0-90AF-1D1BD2FD4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B190F-165F-46F2-A4F4-77062A34D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___sende">'Opdateret d. 05-12-2025'!$A$1:$K$38</definedName>
+    <definedName name="Lægesystemer___sende">'Opdateret d. 19-12-2025'!$A$1:$K$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -628,9 +628,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -847,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -931,7 +931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -986,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
